--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H2">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I2">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J2">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N2">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O2">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P2">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q2">
-        <v>470.5142807082437</v>
+        <v>457.8757334637527</v>
       </c>
       <c r="R2">
-        <v>4234.628526374194</v>
+        <v>4120.881601173774</v>
       </c>
       <c r="S2">
-        <v>0.0161299301095588</v>
+        <v>0.01144013113104792</v>
       </c>
       <c r="T2">
-        <v>0.0168457627402404</v>
+        <v>0.01197325180333327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H3">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I3">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J3">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>20.239686</v>
       </c>
       <c r="O3">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P3">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q3">
-        <v>170.728684626882</v>
+        <v>215.271618864474</v>
       </c>
       <c r="R3">
-        <v>1536.558161641938</v>
+        <v>1937.444569780266</v>
       </c>
       <c r="S3">
-        <v>0.005852833513540291</v>
+        <v>0.005378611200843454</v>
       </c>
       <c r="T3">
-        <v>0.0061125773055147</v>
+        <v>0.005629259448359871</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H4">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I4">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J4">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N4">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O4">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P4">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q4">
-        <v>1096.85188608825</v>
+        <v>2119.879067546739</v>
       </c>
       <c r="R4">
-        <v>9871.666974794249</v>
+        <v>19078.91160792065</v>
       </c>
       <c r="S4">
-        <v>0.03760171580023042</v>
+        <v>0.0529656689408681</v>
       </c>
       <c r="T4">
-        <v>0.03927044808590039</v>
+        <v>0.05543391801164708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H5">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I5">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J5">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N5">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O5">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P5">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q5">
-        <v>128.9792177318719</v>
+        <v>230.8748148716458</v>
       </c>
       <c r="R5">
-        <v>773.8753063912312</v>
+        <v>1385.248889229875</v>
       </c>
       <c r="S5">
-        <v>0.004421599625986038</v>
+        <v>0.005768460662912883</v>
       </c>
       <c r="T5">
-        <v>0.003078550980517708</v>
+        <v>0.004024850836848296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H6">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I6">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J6">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N6">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O6">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P6">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q6">
-        <v>1589.984972691265</v>
+        <v>1480.905902277292</v>
       </c>
       <c r="R6">
-        <v>14309.86475422138</v>
+        <v>13328.15312049563</v>
       </c>
       <c r="S6">
-        <v>0.05450705225387543</v>
+        <v>0.03700077657890608</v>
       </c>
       <c r="T6">
-        <v>0.05692602904674255</v>
+        <v>0.03872504692675999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>196.709926</v>
       </c>
       <c r="I7">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J7">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N7">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O7">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P7">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q7">
-        <v>1219.140759126674</v>
+        <v>940.9106553002894</v>
       </c>
       <c r="R7">
-        <v>10972.26683214007</v>
+        <v>8468.195897702604</v>
       </c>
       <c r="S7">
-        <v>0.04179396044861253</v>
+        <v>0.02350887040421781</v>
       </c>
       <c r="T7">
-        <v>0.04364874099950926</v>
+        <v>0.02460440546854515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>196.709926</v>
       </c>
       <c r="I8">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J8">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>20.239686</v>
       </c>
       <c r="O8">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P8">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q8">
         <v>442.371903924804</v>
@@ -948,10 +948,10 @@
         <v>3981.347135323236</v>
       </c>
       <c r="S8">
-        <v>0.01516516753115105</v>
+        <v>0.01105276436317568</v>
       </c>
       <c r="T8">
-        <v>0.01583818481608757</v>
+        <v>0.01156783338645951</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>196.709926</v>
       </c>
       <c r="I9">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J9">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N9">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O9">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P9">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q9">
-        <v>2842.032422570259</v>
+        <v>4356.240474929363</v>
       </c>
       <c r="R9">
-        <v>25578.29180313233</v>
+        <v>39206.16427436426</v>
       </c>
       <c r="S9">
-        <v>0.09742910305751998</v>
+        <v>0.1088416760909554</v>
       </c>
       <c r="T9">
-        <v>0.1017529240953609</v>
+        <v>0.1139137986798998</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>196.709926</v>
       </c>
       <c r="I10">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J10">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N10">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O10">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P10">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q10">
-        <v>334.1956405244637</v>
+        <v>474.4356546477917</v>
       </c>
       <c r="R10">
-        <v>2005.173843146782</v>
+        <v>2846.61392788675</v>
       </c>
       <c r="S10">
-        <v>0.01145672415397187</v>
+        <v>0.01185388459300164</v>
       </c>
       <c r="T10">
-        <v>0.007976775909434722</v>
+        <v>0.008270857705728676</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>196.709926</v>
       </c>
       <c r="I11">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J11">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N11">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O11">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P11">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q11">
-        <v>4119.780346919595</v>
+        <v>3043.184080555998</v>
       </c>
       <c r="R11">
-        <v>37078.02312227636</v>
+        <v>27388.65672500398</v>
       </c>
       <c r="S11">
-        <v>0.1412322043924366</v>
+        <v>0.07603465829934437</v>
       </c>
       <c r="T11">
-        <v>0.1474999699512773</v>
+        <v>0.07957794357161907</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H12">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I12">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J12">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N12">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O12">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P12">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q12">
-        <v>982.5182965048647</v>
+        <v>1228.040242259482</v>
       </c>
       <c r="R12">
-        <v>8842.664668543783</v>
+        <v>11052.36218033534</v>
       </c>
       <c r="S12">
-        <v>0.03368219011361576</v>
+        <v>0.03068286956239078</v>
       </c>
       <c r="T12">
-        <v>0.03517697717049575</v>
+        <v>0.03211271961055602</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H13">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I13">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J13">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>20.239686</v>
       </c>
       <c r="O13">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P13">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q13">
-        <v>356.512146946152</v>
+        <v>577.3667212762381</v>
       </c>
       <c r="R13">
-        <v>3208.609322515368</v>
+        <v>5196.300491486142</v>
       </c>
       <c r="S13">
-        <v>0.01222176722201545</v>
+        <v>0.01442564110601911</v>
       </c>
       <c r="T13">
-        <v>0.01276415889530167</v>
+        <v>0.01509788929937383</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H14">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I14">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J14">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N14">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O14">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P14">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q14">
-        <v>2290.423672189921</v>
+        <v>5685.596797142755</v>
       </c>
       <c r="R14">
-        <v>20613.81304970929</v>
+        <v>51170.3711742848</v>
       </c>
       <c r="S14">
-        <v>0.07851913378291463</v>
+        <v>0.14205595135067</v>
       </c>
       <c r="T14">
-        <v>0.08200374640757541</v>
+        <v>0.1486758898302796</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H15">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I15">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J15">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N15">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O15">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P15">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q15">
-        <v>269.3317641702527</v>
+        <v>619.2150901769376</v>
       </c>
       <c r="R15">
-        <v>1615.990585021516</v>
+        <v>3715.290541061625</v>
       </c>
       <c r="S15">
-        <v>0.009233093894219465</v>
+        <v>0.01547123228470595</v>
       </c>
       <c r="T15">
-        <v>0.006428567185099348</v>
+        <v>0.01079480399485452</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H16">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I16">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J16">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N16">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O16">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P16">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q16">
-        <v>3320.174096491742</v>
+        <v>3971.846311309424</v>
       </c>
       <c r="R16">
-        <v>29881.56686842568</v>
+        <v>35746.61680178482</v>
       </c>
       <c r="S16">
-        <v>0.1138205115631489</v>
+        <v>0.09923749898256158</v>
       </c>
       <c r="T16">
-        <v>0.1188717694213271</v>
+        <v>0.103862058051637</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H17">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I17">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J17">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N17">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O17">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P17">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q17">
-        <v>362.500327275086</v>
+        <v>340.733271850369</v>
       </c>
       <c r="R17">
-        <v>2175.001963650516</v>
+        <v>2044.399631102214</v>
       </c>
       <c r="S17">
-        <v>0.01242705095972421</v>
+        <v>0.00851329962649747</v>
       </c>
       <c r="T17">
-        <v>0.008652368634229501</v>
+        <v>0.00594001816573818</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H18">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I18">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J18">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>20.239686</v>
       </c>
       <c r="O18">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P18">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q18">
-        <v>131.535229832622</v>
+        <v>160.196747002371</v>
       </c>
       <c r="R18">
-        <v>789.2113789957319</v>
+        <v>961.180482014226</v>
       </c>
       <c r="S18">
-        <v>0.004509223526544863</v>
+        <v>0.004002552785688333</v>
       </c>
       <c r="T18">
-        <v>0.003139559363863135</v>
+        <v>0.002792716960450297</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H19">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I19">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J19">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N19">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O19">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P19">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q19">
-        <v>845.052284238393</v>
+        <v>1577.531364565078</v>
       </c>
       <c r="R19">
-        <v>5070.313705430358</v>
+        <v>9465.188187390468</v>
       </c>
       <c r="S19">
-        <v>0.02896965053466756</v>
+        <v>0.03941498610865811</v>
       </c>
       <c r="T19">
-        <v>0.02017019938544697</v>
+        <v>0.02750117389960476</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H20">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I20">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J20">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N20">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O20">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P20">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q20">
-        <v>99.37000970323352</v>
+        <v>171.8080372243438</v>
       </c>
       <c r="R20">
-        <v>397.4800388129341</v>
+        <v>687.2321488973751</v>
       </c>
       <c r="S20">
-        <v>0.003406551888471201</v>
+        <v>0.004292663558179269</v>
       </c>
       <c r="T20">
-        <v>0.001581214122117439</v>
+        <v>0.001996758063553768</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H21">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I21">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J21">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N21">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O21">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P21">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q21">
-        <v>1224.97891476422</v>
+        <v>1102.032443537238</v>
       </c>
       <c r="R21">
-        <v>7349.87348858532</v>
+        <v>6612.194661223431</v>
       </c>
       <c r="S21">
-        <v>0.04199410111652296</v>
+        <v>0.0275345355591622</v>
       </c>
       <c r="T21">
-        <v>0.02923850916044919</v>
+        <v>0.01921178022414761</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H22">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I22">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J22">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.59297266666666</v>
+        <v>14.349718</v>
       </c>
       <c r="N22">
-        <v>55.77891799999999</v>
+        <v>43.049154</v>
       </c>
       <c r="O22">
-        <v>0.1361024717868078</v>
+        <v>0.1016415840981481</v>
       </c>
       <c r="P22">
-        <v>0.1378163998421381</v>
+        <v>0.1034081666702025</v>
       </c>
       <c r="Q22">
-        <v>935.4710413168725</v>
+        <v>1100.506654777028</v>
       </c>
       <c r="R22">
-        <v>8419.239371851852</v>
+        <v>9904.559892993248</v>
       </c>
       <c r="S22">
-        <v>0.03206934015529653</v>
+        <v>0.02749641337399408</v>
       </c>
       <c r="T22">
-        <v>0.03349255029766317</v>
+        <v>0.0287777716220299</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H23">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I23">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J23">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>20.239686</v>
       </c>
       <c r="O23">
-        <v>0.04938552757134604</v>
+        <v>0.04778708884009916</v>
       </c>
       <c r="P23">
-        <v>0.05000743575655815</v>
+        <v>0.04861765281706964</v>
       </c>
       <c r="Q23">
-        <v>339.440792636862</v>
+        <v>517.406431113546</v>
       </c>
       <c r="R23">
-        <v>3054.967133731758</v>
+        <v>4656.657880021914</v>
       </c>
       <c r="S23">
-        <v>0.01163653577809439</v>
+        <v>0.01292751938437259</v>
       </c>
       <c r="T23">
-        <v>0.01215295537579107</v>
+        <v>0.01352995372242614</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H24">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I24">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J24">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>43.343503</v>
+        <v>66.43651233333334</v>
       </c>
       <c r="N24">
-        <v>130.030509</v>
+        <v>199.309537</v>
       </c>
       <c r="O24">
-        <v>0.3172788988591848</v>
+        <v>0.4705815372480596</v>
       </c>
       <c r="P24">
-        <v>0.3212743678538321</v>
+        <v>0.4787604843769264</v>
       </c>
       <c r="Q24">
-        <v>2180.748211307953</v>
+        <v>5095.140123520852</v>
       </c>
       <c r="R24">
-        <v>19626.73390177157</v>
+        <v>45856.26111168767</v>
       </c>
       <c r="S24">
-        <v>0.07475929568385223</v>
+        <v>0.1273032547569081</v>
       </c>
       <c r="T24">
-        <v>0.07807704987954847</v>
+        <v>0.1332357039554951</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H25">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I25">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J25">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.096778500000001</v>
+        <v>7.2355625</v>
       </c>
       <c r="N25">
-        <v>10.193557</v>
+        <v>14.471125</v>
       </c>
       <c r="O25">
-        <v>0.03730894270841856</v>
+        <v>0.05125076564857627</v>
       </c>
       <c r="P25">
-        <v>0.02518584758717669</v>
+        <v>0.03476102006337534</v>
       </c>
       <c r="Q25">
-        <v>256.4349862840535</v>
+        <v>554.9087920964793</v>
       </c>
       <c r="R25">
-        <v>1538.609917704321</v>
+        <v>3329.452752578875</v>
       </c>
       <c r="S25">
-        <v>0.008790973145769989</v>
+        <v>0.01386452454977652</v>
       </c>
       <c r="T25">
-        <v>0.006120739390007469</v>
+        <v>0.009673749462390075</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H26">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I26">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J26">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>62.83028666666667</v>
+        <v>46.41124333333334</v>
       </c>
       <c r="N26">
-        <v>188.49086</v>
+        <v>139.23373</v>
       </c>
       <c r="O26">
-        <v>0.4599241590742428</v>
+        <v>0.328739024165117</v>
       </c>
       <c r="P26">
-        <v>0.4657159489602949</v>
+        <v>0.3344526760724259</v>
       </c>
       <c r="Q26">
-        <v>3161.189700433286</v>
+        <v>3559.364870083808</v>
       </c>
       <c r="R26">
-        <v>28450.70730389958</v>
+        <v>32034.28383075427</v>
       </c>
       <c r="S26">
-        <v>0.108370289748259</v>
+        <v>0.08893155474514275</v>
       </c>
       <c r="T26">
-        <v>0.1131796713804988</v>
+        <v>0.09307584729826221</v>
       </c>
     </row>
   </sheetData>
